--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H2">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I2">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J2">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N2">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O2">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P2">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q2">
-        <v>70.497798229604</v>
+        <v>51.62486098222767</v>
       </c>
       <c r="R2">
-        <v>634.480184066436</v>
+        <v>464.623748840049</v>
       </c>
       <c r="S2">
-        <v>4.696843901575827E-05</v>
+        <v>0.0002339617761930609</v>
       </c>
       <c r="T2">
-        <v>4.696843901575828E-05</v>
+        <v>0.0002339617761930609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H3">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I3">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J3">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>106.222511</v>
       </c>
       <c r="O3">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P3">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q3">
-        <v>499.6192800486759</v>
+        <v>379.1836423593186</v>
       </c>
       <c r="R3">
-        <v>4496.573520438084</v>
+        <v>3412.652781233867</v>
       </c>
       <c r="S3">
-        <v>0.000332866249377546</v>
+        <v>0.00171844488840912</v>
       </c>
       <c r="T3">
-        <v>0.0003328662493775461</v>
+        <v>0.00171844488840912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H4">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I4">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J4">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N4">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O4">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P4">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q4">
-        <v>803.72714835462</v>
+        <v>549.6022845777912</v>
       </c>
       <c r="R4">
-        <v>7233.54433519158</v>
+        <v>4946.420561200121</v>
       </c>
       <c r="S4">
-        <v>0.0005354750148345919</v>
+        <v>0.002490775263178938</v>
       </c>
       <c r="T4">
-        <v>0.000535475014834592</v>
+        <v>0.002490775263178938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H5">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I5">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J5">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N5">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O5">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P5">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q5">
-        <v>56.206512923788</v>
+        <v>44.05076288468367</v>
       </c>
       <c r="R5">
-        <v>505.858616314092</v>
+        <v>396.456865962153</v>
       </c>
       <c r="S5">
-        <v>3.744701594724109E-05</v>
+        <v>0.0001996362708019293</v>
       </c>
       <c r="T5">
-        <v>3.74470159472411E-05</v>
+        <v>0.0001996362708019293</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H6">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I6">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J6">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N6">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O6">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P6">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q6">
-        <v>712.2997057739241</v>
+        <v>619.8005399314679</v>
       </c>
       <c r="R6">
-        <v>6410.697351965316</v>
+        <v>5578.204859383211</v>
       </c>
       <c r="S6">
-        <v>0.0004745624137455141</v>
+        <v>0.002808910909371849</v>
       </c>
       <c r="T6">
-        <v>0.0004745624137455142</v>
+        <v>0.002808910909371849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>141.883735</v>
       </c>
       <c r="I7">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J7">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N7">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O7">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P7">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q7">
-        <v>236.2887423434961</v>
+        <v>227.9900888022217</v>
       </c>
       <c r="R7">
-        <v>2126.598681091465</v>
+        <v>2051.910799219995</v>
       </c>
       <c r="S7">
-        <v>0.0001574249645176905</v>
+        <v>0.001033241835729971</v>
       </c>
       <c r="T7">
-        <v>0.0001574249645176905</v>
+        <v>0.001033241835729971</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>141.883735</v>
       </c>
       <c r="I8">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J8">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>106.222511</v>
       </c>
       <c r="O8">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P8">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q8">
         <v>1674.582955750954</v>
@@ -948,10 +948,10 @@
         <v>15071.24660175858</v>
       </c>
       <c r="S8">
-        <v>0.001115673814065139</v>
+        <v>0.00758914203846468</v>
       </c>
       <c r="T8">
-        <v>0.001115673814065139</v>
+        <v>0.007589142038464683</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>141.883735</v>
       </c>
       <c r="I9">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J9">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N9">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O9">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P9">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q9">
-        <v>2693.866785080509</v>
+        <v>2427.200214833151</v>
       </c>
       <c r="R9">
-        <v>24244.80106572458</v>
+        <v>21844.80193349835</v>
       </c>
       <c r="S9">
-        <v>0.001794761268990931</v>
+        <v>0.01099997293230558</v>
       </c>
       <c r="T9">
-        <v>0.001794761268990931</v>
+        <v>0.01099997293230558</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>141.883735</v>
       </c>
       <c r="I10">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J10">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N10">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O10">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P10">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q10">
-        <v>188.3883835211506</v>
+        <v>194.5407145085017</v>
       </c>
       <c r="R10">
-        <v>1695.495451690355</v>
+        <v>1750.866430576515</v>
       </c>
       <c r="S10">
-        <v>0.0001255118390204531</v>
+        <v>0.0008816506280558354</v>
       </c>
       <c r="T10">
-        <v>0.0001255118390204531</v>
+        <v>0.0008816506280558358</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>141.883735</v>
       </c>
       <c r="I11">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J11">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N11">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O11">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P11">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q11">
-        <v>2387.427776124297</v>
+        <v>2737.215702862367</v>
       </c>
       <c r="R11">
-        <v>21486.84998511866</v>
+        <v>24634.9413257613</v>
       </c>
       <c r="S11">
-        <v>0.001590599404852523</v>
+        <v>0.01240495055058224</v>
       </c>
       <c r="T11">
-        <v>0.001590599404852524</v>
+        <v>0.01240495055058225</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H12">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I12">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J12">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N12">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O12">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P12">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q12">
-        <v>35112.55968627047</v>
+        <v>1983.09894936242</v>
       </c>
       <c r="R12">
-        <v>316013.0371764342</v>
+        <v>17847.89054426178</v>
       </c>
       <c r="S12">
-        <v>0.02339338475423803</v>
+        <v>0.008987324008855936</v>
       </c>
       <c r="T12">
-        <v>0.02339338475423803</v>
+        <v>0.008987324008855936</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H13">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I13">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J13">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>106.222511</v>
       </c>
       <c r="O13">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P13">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q13">
-        <v>248843.3998177528</v>
+        <v>14565.82484623153</v>
       </c>
       <c r="R13">
-        <v>2239590.598359776</v>
+        <v>131092.4236160837</v>
       </c>
       <c r="S13">
-        <v>0.1657893770064729</v>
+        <v>0.06601172744880666</v>
       </c>
       <c r="T13">
-        <v>0.1657893770064729</v>
+        <v>0.06601172744880666</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H14">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I14">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J14">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N14">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O14">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P14">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q14">
-        <v>400309.2036458353</v>
+        <v>21112.22562882285</v>
       </c>
       <c r="R14">
-        <v>3602782.832812518</v>
+        <v>190010.0306594056</v>
       </c>
       <c r="S14">
-        <v>0.2667019239047771</v>
+        <v>0.09567975028946825</v>
       </c>
       <c r="T14">
-        <v>0.2667019239047771</v>
+        <v>0.09567975028946825</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H15">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I15">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J15">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N15">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O15">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P15">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q15">
-        <v>27994.55570748432</v>
+        <v>1692.15025344674</v>
       </c>
       <c r="R15">
-        <v>251951.0013673589</v>
+        <v>15229.35228102066</v>
       </c>
       <c r="S15">
-        <v>0.0186510872047076</v>
+        <v>0.007668756319135254</v>
       </c>
       <c r="T15">
-        <v>0.0186510872047076</v>
+        <v>0.007668756319135256</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H16">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I16">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J16">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N16">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O16">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P16">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q16">
-        <v>354772.2987325458</v>
+        <v>23808.79630795505</v>
       </c>
       <c r="R16">
-        <v>3192950.688592911</v>
+        <v>214279.1667715954</v>
       </c>
       <c r="S16">
-        <v>0.2363634254679836</v>
+        <v>0.1079004992409684</v>
       </c>
       <c r="T16">
-        <v>0.2363634254679836</v>
+        <v>0.1079004992409684</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H17">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I17">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J17">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N17">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O17">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P17">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q17">
-        <v>591.4675538729439</v>
+        <v>835.2049214292198</v>
       </c>
       <c r="R17">
-        <v>5323.207984856495</v>
+        <v>7516.844292862977</v>
       </c>
       <c r="S17">
-        <v>0.0003940592249903112</v>
+        <v>0.003785114830043541</v>
       </c>
       <c r="T17">
-        <v>0.0003940592249903113</v>
+        <v>0.003785114830043542</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H18">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I18">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J18">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>106.222511</v>
       </c>
       <c r="O18">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P18">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q18">
-        <v>4191.742165843406</v>
+        <v>6134.564591524721</v>
       </c>
       <c r="R18">
-        <v>37725.67949259065</v>
+        <v>55211.08132372249</v>
       </c>
       <c r="S18">
-        <v>0.002792705463580326</v>
+        <v>0.02780159792581877</v>
       </c>
       <c r="T18">
-        <v>0.002792705463580326</v>
+        <v>0.02780159792581877</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H19">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I19">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J19">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N19">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O19">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P19">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q19">
-        <v>6743.168472727692</v>
+        <v>8891.656542496827</v>
       </c>
       <c r="R19">
-        <v>60688.51625454923</v>
+        <v>80024.90888247144</v>
       </c>
       <c r="S19">
-        <v>0.004492567216819779</v>
+        <v>0.04029662682670222</v>
       </c>
       <c r="T19">
-        <v>0.00449256721681978</v>
+        <v>0.04029662682670223</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H20">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I20">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J20">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N20">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O20">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P20">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q20">
-        <v>471.5654892155295</v>
+        <v>712.6685332221077</v>
       </c>
       <c r="R20">
-        <v>4244.089402939765</v>
+        <v>6414.01679899897</v>
       </c>
       <c r="S20">
-        <v>0.0003141756973745451</v>
+        <v>0.003229784888465822</v>
       </c>
       <c r="T20">
-        <v>0.0003141756973745452</v>
+        <v>0.003229784888465823</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H21">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I21">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J21">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N21">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O21">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P21">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q21">
-        <v>5976.103866767344</v>
+        <v>10027.34828542122</v>
       </c>
       <c r="R21">
-        <v>53784.9348009061</v>
+        <v>90246.13456879099</v>
       </c>
       <c r="S21">
-        <v>0.00398151824690931</v>
+        <v>0.04544353574474962</v>
       </c>
       <c r="T21">
-        <v>0.003981518246909311</v>
+        <v>0.04544353574474963</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H22">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I22">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J22">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.996106333333334</v>
+        <v>4.820639</v>
       </c>
       <c r="N22">
-        <v>14.988319</v>
+        <v>14.461917</v>
       </c>
       <c r="O22">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="P22">
-        <v>0.03290675360012103</v>
+        <v>0.03139697817829975</v>
       </c>
       <c r="Q22">
-        <v>13380.94213679009</v>
+        <v>3829.984788683796</v>
       </c>
       <c r="R22">
-        <v>120428.4792311109</v>
+        <v>34469.86309815416</v>
       </c>
       <c r="S22">
-        <v>0.008914916217359233</v>
+        <v>0.01735733572747724</v>
       </c>
       <c r="T22">
-        <v>0.008914916217359233</v>
+        <v>0.01735733572747724</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H23">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I23">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J23">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>106.222511</v>
       </c>
       <c r="O23">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="P23">
-        <v>0.233210808781368</v>
+        <v>0.2306102199252841</v>
       </c>
       <c r="Q23">
-        <v>94830.99961480331</v>
+        <v>28131.16693629185</v>
       </c>
       <c r="R23">
-        <v>853478.9965332299</v>
+        <v>253180.5024266267</v>
       </c>
       <c r="S23">
-        <v>0.06318018624787206</v>
+        <v>0.1274893076237848</v>
       </c>
       <c r="T23">
-        <v>0.06318018624787207</v>
+        <v>0.1274893076237849</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H24">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I24">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J24">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>56.959315</v>
+        <v>51.32089766666667</v>
       </c>
       <c r="N24">
-        <v>170.877945</v>
+        <v>153.962693</v>
       </c>
       <c r="O24">
-        <v>0.3751613794588994</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="P24">
-        <v>0.3751613794588995</v>
+        <v>0.3342546712440172</v>
       </c>
       <c r="Q24">
-        <v>152552.6574727026</v>
+        <v>40774.31589565844</v>
       </c>
       <c r="R24">
-        <v>1372973.917254323</v>
+        <v>366968.843060926</v>
       </c>
       <c r="S24">
-        <v>0.1016366520534771</v>
+        <v>0.1847875459323622</v>
       </c>
       <c r="T24">
-        <v>0.1016366520534771</v>
+        <v>0.1847875459323622</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H25">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I25">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J25">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.983297666666667</v>
+        <v>4.113383</v>
       </c>
       <c r="N25">
-        <v>11.949893</v>
+        <v>12.340149</v>
       </c>
       <c r="O25">
-        <v>0.02623590974403541</v>
+        <v>0.0267905969084159</v>
       </c>
       <c r="P25">
-        <v>0.02623590974403541</v>
+        <v>0.02679059690841591</v>
       </c>
       <c r="Q25">
-        <v>10668.36292807973</v>
+        <v>3268.071788829347</v>
       </c>
       <c r="R25">
-        <v>96015.26635271755</v>
+        <v>29412.64609946413</v>
       </c>
       <c r="S25">
-        <v>0.007107687986985571</v>
+        <v>0.01481076880195706</v>
       </c>
       <c r="T25">
-        <v>0.007107687986985572</v>
+        <v>0.01481076880195707</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H26">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I26">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J26">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>50.47994633333334</v>
+        <v>57.87588766666666</v>
       </c>
       <c r="N26">
-        <v>151.439839</v>
+        <v>173.627663</v>
       </c>
       <c r="O26">
-        <v>0.332485148415576</v>
+        <v>0.376947533743983</v>
       </c>
       <c r="P26">
-        <v>0.3324851484155761</v>
+        <v>0.3769475337439831</v>
       </c>
       <c r="Q26">
-        <v>135199.1322618506</v>
+        <v>45982.23791387519</v>
       </c>
       <c r="R26">
-        <v>1216792.190356655</v>
+        <v>413840.1412248767</v>
       </c>
       <c r="S26">
-        <v>0.09007504288208512</v>
+        <v>0.2083896372983109</v>
       </c>
       <c r="T26">
-        <v>0.09007504288208514</v>
+        <v>0.208389637298311</v>
       </c>
     </row>
   </sheetData>
